--- a/biology/Médecine/Hôpital_pour_enfants_Morgan_Stanley/Hôpital_pour_enfants_Morgan_Stanley.xlsx
+++ b/biology/Médecine/Hôpital_pour_enfants_Morgan_Stanley/Hôpital_pour_enfants_Morgan_Stanley.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_pour_enfants_Morgan_Stanley</t>
+          <t>Hôpital_pour_enfants_Morgan_Stanley</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'hôpital pour enfants Morgan Stanley (anglais: Morgan Stanley Children's Hospital) est un hôpital pour enfants américain situé à Manhattan, New York, à l'intersection de Broadway et de la 165e rue. L'établissement hospitalier fait partie de l'Hôpital presbytérien de New York et du Centre médical de l'université Columbia. 
-Sa construction a été en majeure partie financée par la banque d'investissement Morgan Stanley, via une donation de 55 millions de dollars[1], pour un coût total de 120 millions de dollars[2].
-Il ouvre ses portes le 12 novembre 2003[2].
+Sa construction a été en majeure partie financée par la banque d'investissement Morgan Stanley, via une donation de 55 millions de dollars, pour un coût total de 120 millions de dollars.
+Il ouvre ses portes le 12 novembre 2003.
 </t>
         </is>
       </c>
